--- a/_Drive/Publicacoes/hugo.xlsx
+++ b/_Drive/Publicacoes/hugo.xlsx
@@ -8,396 +8,1239 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjJGKQI36XI32jRrLCmvDuLFDgtUw=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="SGkhBd+5gpRvU8DZapR2izUz79uB0lK8nf+BkQJrXfg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>DOI</t>
   </si>
   <si>
-    <t>10.1016/j.jmmm.2020.167370</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2020.167702</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2021.168336</t>
-  </si>
-  <si>
-    <t>10.1016/j.matchar.2021.111485</t>
-  </si>
-  <si>
-    <t>10.1016/j.mtla.2021.101236</t>
-  </si>
-  <si>
-    <t>10.1016/j.mtla.2021.101243</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2017.07.010</t>
-  </si>
-  <si>
-    <t>10.3139/147.110521</t>
-  </si>
-  <si>
-    <t>10.1016/j.scriptamat.2007.01.032</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.558-559.313</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.498-499.55</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/SSP.105.315</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2013.09.008</t>
-  </si>
-  <si>
-    <t>10.1590/S1516-14392011005000014</t>
-  </si>
-  <si>
-    <t>10.1016/j.ijrmhm.2011.06.012</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.416-418.251</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2010.10.051</t>
-  </si>
-  <si>
-    <t>10.1590/S0370-44672009000200007</t>
-  </si>
-  <si>
-    <t>10.1007/s11661-014-2401-3</t>
-  </si>
-  <si>
-    <t>10.1590/S0370-44672010000200012</t>
-  </si>
-  <si>
-    <t>10.1155/2016/7093071</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2006.08.159</t>
-  </si>
-  <si>
-    <t>10.1088/1757-899X/82/1/012060</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.638-642.3009</t>
-  </si>
-  <si>
-    <t>10.1016/j.addma.2019.100979</t>
-  </si>
-  <si>
-    <t>10.1016/j.jallcom.2008.09.004</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2016.12.019</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2011.11.051</t>
-  </si>
-  <si>
-    <t>10.1016/S1359-6462(99)00331-0</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2019.03.116</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.667-669.373</t>
-  </si>
-  <si>
-    <t>10.1007/s10853-010-4462-z</t>
-  </si>
-  <si>
-    <t>10.1007/s10853-007-1515-z</t>
-  </si>
-  <si>
-    <t>10.1109/TASC.2005.864287</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2011.01.007</t>
-  </si>
-  <si>
-    <t>10.1109/TASC.2008.920575</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2012.12.017</t>
-  </si>
-  <si>
-    <t>10.1051/jp4:1996827</t>
-  </si>
-  <si>
-    <t>10.1080/00084433.2017.1409946</t>
-  </si>
-  <si>
-    <t>10.1016/j.matchar.2016.03.023</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2016.12.025</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/19/12/002</t>
-  </si>
-  <si>
-    <t>10.4322/tmm.2011.021</t>
-  </si>
-  <si>
-    <t>10.1590/S1516-14392005000300002</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/msf.753.333</t>
-  </si>
-  <si>
-    <t>10.1016/S0921-5093(02)00604-4</t>
-  </si>
-  <si>
-    <t>10.1016/S0921-5093(03)00011-X</t>
-  </si>
-  <si>
-    <t>10.1016/S1044-5803(00)00070-X</t>
-  </si>
-  <si>
-    <t>10.1016/j.actamat.2020.07.038</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2014.12.112</t>
-  </si>
-  <si>
-    <t>10.1016/j.actamat.2017.10.026</t>
-  </si>
-  <si>
-    <t>10.1016/j.fusengdes.2013.04.005</t>
-  </si>
-  <si>
-    <t>10.1016/S1359-6462(01)01087-9</t>
-  </si>
-  <si>
-    <t>10.1051/epjconf/20147504012</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/16/3/301</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2008.07.002</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-mr-2017-0288</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2006.05.110</t>
-  </si>
-  <si>
-    <t>10.1016/j.fusengdes.2017.11.003</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2014.01.032</t>
-  </si>
-  <si>
-    <t>10.1524/zksu.2009.0017</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2017.05.027</t>
-  </si>
-  <si>
-    <t>10.1016/S0921-5093(01)01323-5</t>
-  </si>
-  <si>
-    <t>10.1590/S1516-14392005000300012</t>
-  </si>
-  <si>
-    <t>10.1023/A:1017584120460</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2010.02.051</t>
-  </si>
-  <si>
-    <t>10.1016/j.scriptamat.2004.07.026</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/KEM.189-191.296</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/18/1/006</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.715-716.629</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2018.10.034</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2015.10.110</t>
-  </si>
-  <si>
-    <t>10.1016/S0263-4368(02)00017-3</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2019.04.014</t>
-  </si>
-  <si>
-    <t>10.1109/TASC.2004.830467</t>
-  </si>
-  <si>
-    <t>10.3390/molecules24010089</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2015.03.020</t>
-  </si>
-  <si>
-    <t>10.1016/S0263-4368(99)00035-9</t>
-  </si>
-  <si>
-    <t>10.1088/1757-899x/97/1/012006</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2005.11.041</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2016.06.027</t>
-  </si>
-  <si>
-    <t>10.1016/j.apsusc.2012.09.060</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.467-470.513</t>
-  </si>
-  <si>
-    <t>10.1016/S0263-4368(00)00020-2</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/18/9/001</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2003.11.052</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2004.09.032</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.495-497.393</t>
-  </si>
-  <si>
-    <t>10.1016/S0010-938X(98)00187-5</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.638-642.1995</t>
-  </si>
-  <si>
-    <t>10.1590/S0370-44672007000100018</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2007.02.086</t>
-  </si>
-  <si>
-    <t>10.1016/S0263-4368(98)00027-4</t>
-  </si>
-  <si>
-    <t>10.1007/s10800-011-0320-1</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/DDF.283-286.38</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/DDF.273-276.256</t>
-  </si>
-  <si>
-    <t>10.1080/00084433.2017.1299907</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2006.12.019</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmatprotec.2017.10.008</t>
-  </si>
-  <si>
-    <t>10.1016/j.scriptamat.2005.03.045</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2019.01.022</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.591-593.141</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.416-418.23</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.558-559.125</t>
-  </si>
-  <si>
-    <t>10.1016/j.physc.2006.04.019</t>
-  </si>
-  <si>
-    <t>10.1016/0263-4368(95)00049-6</t>
-  </si>
-  <si>
-    <t>10.1016/j.ijrmhm.2019.105080</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.408-412.517</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmrt.2020.07.065</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.416-418.257</t>
-  </si>
-  <si>
-    <t>10.1016/j.ijrmhm.2018.01.021</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.498-499.146</t>
-  </si>
-  <si>
-    <t>10.1007/s10853-014-8497-4</t>
-  </si>
-  <si>
-    <t>10.1016/j.scriptamat.2009.10.002</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.467-470.519</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.467-470.507</t>
-  </si>
-  <si>
-    <t>10.1007/s11661-012-1408-x</t>
-  </si>
-  <si>
-    <t>10.1016/j.actamat.2013.06.027</t>
-  </si>
-  <si>
-    <t>10.1007/s11669-017-0530-2</t>
-  </si>
-  <si>
-    <t>10.1016/j.physc.2004.02.082</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2008.11.029</t>
-  </si>
-  <si>
-    <t>10.3390/ma13183922</t>
-  </si>
-  <si>
-    <t>10.1016/j.actamat.2018.12.046</t>
-  </si>
-  <si>
-    <t>10.1103/PhysRevLett.107.075503</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s10800-011-0320-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s10853-007-1515-z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s10853-010-4462-z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s10853-014-8497-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s10853-021-06859-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s10853-024-09418-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11661-012-1408-x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11661-014-2401-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11665-023-08153-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11669-017-0530-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/0263-4368(95)00049-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0010-938X(98)00187-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0263-4368(00)00020-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0263-4368(02)00017-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0263-4368(98)00027-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0263-4368(99)00035-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0921-5093(01)01323-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0921-5093(02)00604-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0921-5093(03)00011-X</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S1044-5803(00)00070-X</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S1359-6462(01)01087-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S1359-6462(99)00331-0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.actamat.2013.06.027</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.actamat.2017.10.026</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.actamat.2018.12.046</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.actamat.2020.07.038</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.actamat.2024.119956</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.addma.2019.100979</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.apsusc.2012.09.060</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.fusengdes.2013.04.005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.fusengdes.2017.11.003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ijrmhm.2011.06.012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ijrmhm.2018.01.021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ijrmhm.2019.105080</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.ijrmhm.2023.106124</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2006.08.159</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jallcom.2008.09.004</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmatprotec.2017.10.008</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmmm.2016.06.027</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmmm.2018.10.034</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmmm.2020.167370</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmmm.2020.167702</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmmm.2021.168336</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmrt.2020.07.065</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2008.11.029</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2012.12.017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2013.09.008</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2014.01.032</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2014.12.112</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2015.03.020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2016.12.019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2016.12.025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2017.05.027</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2019.01.022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2016.03.023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2021.111485</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2022.112509</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2024.113857</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2025.114789</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2003.11.052</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2004.09.032</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2005.11.041</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2006.05.110</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2006.12.019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2007.02.086</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2008.07.002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2010.02.051</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2010.10.051</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2011.01.007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2011.11.051</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2015.10.110</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2017.07.010</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2019.03.116</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2019.04.014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2022.142773</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.mtla.2021.101236</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.mtla.2021.101243</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.nme.2023.101450</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.physc.2004.02.082</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.physc.2006.04.019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.scriptamat.2004.07.026</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.scriptamat.2005.03.045</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.scriptamat.2007.01.032</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.scriptamat.2009.10.002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1023/A:1017584120460</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1051/epjconf/20147504012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1051/jp4:1996827</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1080/00084433.2017.1299907</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1080/00084433.2017.1409946</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/16/3/301</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/18/1/006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/18/9/001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/19/12/002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/1757-899X/82/1/012060</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/1757-899x/97/1/012006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1103/PhysRevLett.107.075503</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1109/TASC.2004.830467</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1109/TASC.2005.864287</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1109/TASC.2008.920575</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1155/2016/7093071</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1524/zksu.2009.0017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-MR-2024-0276</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2017-0288</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/S0370-44672007000100018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/S0370-44672009000200007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/S0370-44672010000200012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/S1516-14392005000300002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/S1516-14392005000300012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/S1516-14392011005000014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.3139/147.110521</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.3390/ma13183922</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.3390/molecules24010089</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/DDF.273-276.256</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/DDF.283-286.38</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/KEM.189-191.296</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.408-412.517</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.416-418.23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.416-418.251</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.416-418.257</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.467-470.507</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.467-470.513</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.467-470.519</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.495-497.393</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.498-499.146</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.498-499.55</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.558-559.125</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.558-559.313</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.591-593.141</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.638-642.1995</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.638-642.3009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.667-669.373</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.715-716.629</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/SSP.105.315</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/msf.753.333</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4322/tmm.2011.021</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -414,11 +1257,6 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -434,7 +1272,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -444,7 +1282,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -702,614 +1539,650 @@
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="3" t="s">
-        <v>2</v>
+      <c r="A72" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="3" t="s">
-        <v>71</v>
+      <c r="A73" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="3" t="s">
-        <v>72</v>
+      <c r="A74" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="3" t="s">
-        <v>73</v>
+      <c r="A75" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="3" t="s">
-        <v>74</v>
+      <c r="A76" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="3" t="s">
-        <v>75</v>
+      <c r="A77" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="3" t="s">
-        <v>76</v>
+      <c r="A78" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="3" t="s">
-        <v>77</v>
+      <c r="A79" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="3" t="s">
-        <v>78</v>
+      <c r="A80" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="3" t="s">
-        <v>79</v>
+      <c r="A81" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="3" t="s">
-        <v>80</v>
+      <c r="A82" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="3" t="s">
-        <v>81</v>
+      <c r="A83" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="3" t="s">
-        <v>82</v>
+      <c r="A84" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="3" t="s">
-        <v>83</v>
+      <c r="A85" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="3" t="s">
-        <v>84</v>
+      <c r="A86" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="3" t="s">
-        <v>85</v>
+      <c r="A87" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="3" t="s">
-        <v>86</v>
+      <c r="A88" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="3" t="s">
-        <v>87</v>
+      <c r="A89" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="3" t="s">
-        <v>88</v>
+      <c r="A90" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="3" t="s">
-        <v>89</v>
+      <c r="A91" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="3" t="s">
-        <v>90</v>
+      <c r="A92" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="3" t="s">
-        <v>91</v>
+      <c r="A93" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="3" t="s">
-        <v>92</v>
+      <c r="A94" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="3" t="s">
-        <v>93</v>
+      <c r="A95" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="3" t="s">
-        <v>94</v>
+      <c r="A96" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="3" t="s">
-        <v>95</v>
+      <c r="A97" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="3" t="s">
-        <v>96</v>
+      <c r="A98" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="3" t="s">
-        <v>1</v>
+      <c r="A99" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="3" t="s">
-        <v>97</v>
+      <c r="A100" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="3" t="s">
-        <v>98</v>
+      <c r="A101" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>99</v>
+      <c r="A102" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="3" t="s">
-        <v>100</v>
+      <c r="A103" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="3" t="s">
-        <v>101</v>
+      <c r="A104" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="3" t="s">
-        <v>102</v>
+      <c r="A105" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="3" t="s">
-        <v>103</v>
+      <c r="A106" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="3" t="s">
-        <v>104</v>
+      <c r="A107" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="3" t="s">
-        <v>105</v>
+      <c r="A108" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="3" t="s">
-        <v>106</v>
+      <c r="A109" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="3" t="s">
-        <v>107</v>
+      <c r="A110" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="3" t="s">
-        <v>108</v>
+      <c r="A111" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="3" t="s">
-        <v>109</v>
+      <c r="A112" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="3" t="s">
-        <v>110</v>
+      <c r="A113" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="3" t="s">
-        <v>111</v>
+      <c r="A114" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="3" t="s">
-        <v>112</v>
+      <c r="A115" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="3" t="s">
-        <v>113</v>
+      <c r="A116" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="3" t="s">
-        <v>114</v>
+      <c r="A117" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="3" t="s">
-        <v>115</v>
+      <c r="A118" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="3" t="s">
-        <v>116</v>
+      <c r="A119" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="3" t="s">
-        <v>117</v>
+      <c r="A120" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="3" t="s">
-        <v>118</v>
+      <c r="A121" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="3" t="s">
-        <v>119</v>
+      <c r="A122" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="3" t="s">
-        <v>120</v>
+      <c r="A123" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="3" t="s">
-        <v>121</v>
+      <c r="A124" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="3" t="s">
-        <v>122</v>
+      <c r="A125" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="3" t="s">
-        <v>123</v>
+      <c r="A126" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
+      <c r="A127" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" ht="12.75" customHeight="1">
+      <c r="A128" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" ht="12.75" customHeight="1">
+      <c r="A129" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" ht="12.75" customHeight="1">
+      <c r="A130" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" ht="12.75" customHeight="1">
+      <c r="A131" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" ht="12.75" customHeight="1">
+      <c r="A132" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" ht="12.75" customHeight="1">
+      <c r="A133" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" ht="12.75" customHeight="1">
+      <c r="A134" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" ht="12.75" customHeight="1">
+      <c r="A135" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" ht="12.75" customHeight="1">
+      <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="137" ht="12.75" customHeight="1"/>
     <row r="138" ht="12.75" customHeight="1"/>
     <row r="139" ht="12.75" customHeight="1"/>
@@ -2187,6 +3060,135 @@
     <hyperlink r:id="rId4" ref="A5"/>
     <hyperlink r:id="rId5" ref="A6"/>
     <hyperlink r:id="rId6" ref="A7"/>
+    <hyperlink r:id="rId7" ref="A8"/>
+    <hyperlink r:id="rId8" ref="A9"/>
+    <hyperlink r:id="rId9" ref="A10"/>
+    <hyperlink r:id="rId10" ref="A11"/>
+    <hyperlink r:id="rId11" ref="A12"/>
+    <hyperlink r:id="rId12" ref="A13"/>
+    <hyperlink r:id="rId13" ref="A14"/>
+    <hyperlink r:id="rId14" ref="A15"/>
+    <hyperlink r:id="rId15" ref="A16"/>
+    <hyperlink r:id="rId16" ref="A17"/>
+    <hyperlink r:id="rId17" ref="A18"/>
+    <hyperlink r:id="rId18" ref="A19"/>
+    <hyperlink r:id="rId19" ref="A20"/>
+    <hyperlink r:id="rId20" ref="A21"/>
+    <hyperlink r:id="rId21" ref="A22"/>
+    <hyperlink r:id="rId22" ref="A23"/>
+    <hyperlink r:id="rId23" ref="A24"/>
+    <hyperlink r:id="rId24" ref="A25"/>
+    <hyperlink r:id="rId25" ref="A26"/>
+    <hyperlink r:id="rId26" ref="A27"/>
+    <hyperlink r:id="rId27" ref="A28"/>
+    <hyperlink r:id="rId28" ref="A29"/>
+    <hyperlink r:id="rId29" ref="A30"/>
+    <hyperlink r:id="rId30" ref="A31"/>
+    <hyperlink r:id="rId31" ref="A32"/>
+    <hyperlink r:id="rId32" ref="A33"/>
+    <hyperlink r:id="rId33" ref="A34"/>
+    <hyperlink r:id="rId34" ref="A35"/>
+    <hyperlink r:id="rId35" ref="A36"/>
+    <hyperlink r:id="rId36" ref="A37"/>
+    <hyperlink r:id="rId37" ref="A38"/>
+    <hyperlink r:id="rId38" ref="A39"/>
+    <hyperlink r:id="rId39" ref="A40"/>
+    <hyperlink r:id="rId40" ref="A41"/>
+    <hyperlink r:id="rId41" ref="A42"/>
+    <hyperlink r:id="rId42" ref="A43"/>
+    <hyperlink r:id="rId43" ref="A44"/>
+    <hyperlink r:id="rId44" ref="A45"/>
+    <hyperlink r:id="rId45" ref="A46"/>
+    <hyperlink r:id="rId46" ref="A47"/>
+    <hyperlink r:id="rId47" ref="A48"/>
+    <hyperlink r:id="rId48" ref="A49"/>
+    <hyperlink r:id="rId49" ref="A50"/>
+    <hyperlink r:id="rId50" ref="A51"/>
+    <hyperlink r:id="rId51" ref="A52"/>
+    <hyperlink r:id="rId52" ref="A53"/>
+    <hyperlink r:id="rId53" ref="A54"/>
+    <hyperlink r:id="rId54" ref="A55"/>
+    <hyperlink r:id="rId55" ref="A56"/>
+    <hyperlink r:id="rId56" ref="A57"/>
+    <hyperlink r:id="rId57" ref="A58"/>
+    <hyperlink r:id="rId58" ref="A59"/>
+    <hyperlink r:id="rId59" ref="A60"/>
+    <hyperlink r:id="rId60" ref="A61"/>
+    <hyperlink r:id="rId61" ref="A62"/>
+    <hyperlink r:id="rId62" ref="A63"/>
+    <hyperlink r:id="rId63" ref="A64"/>
+    <hyperlink r:id="rId64" ref="A65"/>
+    <hyperlink r:id="rId65" ref="A66"/>
+    <hyperlink r:id="rId66" ref="A67"/>
+    <hyperlink r:id="rId67" ref="A68"/>
+    <hyperlink r:id="rId68" ref="A69"/>
+    <hyperlink r:id="rId69" ref="A70"/>
+    <hyperlink r:id="rId70" ref="A71"/>
+    <hyperlink r:id="rId71" ref="A72"/>
+    <hyperlink r:id="rId72" ref="A73"/>
+    <hyperlink r:id="rId73" ref="A74"/>
+    <hyperlink r:id="rId74" ref="A75"/>
+    <hyperlink r:id="rId75" ref="A76"/>
+    <hyperlink r:id="rId76" ref="A77"/>
+    <hyperlink r:id="rId77" ref="A78"/>
+    <hyperlink r:id="rId78" ref="A79"/>
+    <hyperlink r:id="rId79" ref="A80"/>
+    <hyperlink r:id="rId80" ref="A81"/>
+    <hyperlink r:id="rId81" ref="A82"/>
+    <hyperlink r:id="rId82" ref="A83"/>
+    <hyperlink r:id="rId83" ref="A84"/>
+    <hyperlink r:id="rId84" ref="A85"/>
+    <hyperlink r:id="rId85" ref="A86"/>
+    <hyperlink r:id="rId86" ref="A87"/>
+    <hyperlink r:id="rId87" ref="A88"/>
+    <hyperlink r:id="rId88" ref="A89"/>
+    <hyperlink r:id="rId89" ref="A90"/>
+    <hyperlink r:id="rId90" ref="A91"/>
+    <hyperlink r:id="rId91" ref="A92"/>
+    <hyperlink r:id="rId92" ref="A93"/>
+    <hyperlink r:id="rId93" ref="A94"/>
+    <hyperlink r:id="rId94" ref="A95"/>
+    <hyperlink r:id="rId95" ref="A96"/>
+    <hyperlink r:id="rId96" ref="A97"/>
+    <hyperlink r:id="rId97" ref="A98"/>
+    <hyperlink r:id="rId98" ref="A99"/>
+    <hyperlink r:id="rId99" ref="A100"/>
+    <hyperlink r:id="rId100" ref="A101"/>
+    <hyperlink r:id="rId101" ref="A102"/>
+    <hyperlink r:id="rId102" ref="A103"/>
+    <hyperlink r:id="rId103" ref="A104"/>
+    <hyperlink r:id="rId104" ref="A105"/>
+    <hyperlink r:id="rId105" ref="A106"/>
+    <hyperlink r:id="rId106" ref="A107"/>
+    <hyperlink r:id="rId107" ref="A108"/>
+    <hyperlink r:id="rId108" ref="A109"/>
+    <hyperlink r:id="rId109" ref="A110"/>
+    <hyperlink r:id="rId110" ref="A111"/>
+    <hyperlink r:id="rId111" ref="A112"/>
+    <hyperlink r:id="rId112" ref="A113"/>
+    <hyperlink r:id="rId113" ref="A114"/>
+    <hyperlink r:id="rId114" ref="A115"/>
+    <hyperlink r:id="rId115" ref="A116"/>
+    <hyperlink r:id="rId116" ref="A117"/>
+    <hyperlink r:id="rId117" ref="A118"/>
+    <hyperlink r:id="rId118" ref="A119"/>
+    <hyperlink r:id="rId119" ref="A120"/>
+    <hyperlink r:id="rId120" ref="A121"/>
+    <hyperlink r:id="rId121" ref="A122"/>
+    <hyperlink r:id="rId122" ref="A123"/>
+    <hyperlink r:id="rId123" ref="A124"/>
+    <hyperlink r:id="rId124" ref="A125"/>
+    <hyperlink r:id="rId125" ref="A126"/>
+    <hyperlink r:id="rId126" ref="A127"/>
+    <hyperlink r:id="rId127" ref="A128"/>
+    <hyperlink r:id="rId128" ref="A129"/>
+    <hyperlink r:id="rId129" ref="A130"/>
+    <hyperlink r:id="rId130" ref="A131"/>
+    <hyperlink r:id="rId131" ref="A132"/>
+    <hyperlink r:id="rId132" ref="A133"/>
+    <hyperlink r:id="rId133" ref="A134"/>
+    <hyperlink r:id="rId134" ref="A135"/>
+    <hyperlink r:id="rId135" ref="A136"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.6666666666666667" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.6666666666666667"/>
@@ -2195,6 +3197,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId136"/>
 </worksheet>
 </file>